--- a/Documents/Testing/TestDocuments/traceability-matrix.xlsx
+++ b/Documents/Testing/TestDocuments/traceability-matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc659db7a6935bda/Desktop/github/winter24-sft221-zaa-2/Documents/Testing/TestDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB66B37B-17F7-490A-AA8F-9A57D23DB175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FB66B37B-17F7-490A-AA8F-9A57D23DB175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF457E2-775F-4648-8B8C-FCBBCA50FE19}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView minimized="1" xWindow="3000" yWindow="768" windowWidth="10116" windowHeight="10524" activeTab="1" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracibility Matrix" sheetId="1" r:id="rId1"/>
@@ -225,15 +225,6 @@
     <t>T024</t>
   </si>
   <si>
-    <t>package must meet specific sizes {1, 0.5 , 5}</t>
-  </si>
-  <si>
-    <t>package must meet weight constraints {between 1-1200kg}</t>
-  </si>
-  <si>
-    <t>package must have a valid destination { between {1,1} and {25, 25} }</t>
-  </si>
-  <si>
     <r>
       <t>package should be pickup by the truck that has enough space to place the shipment (max volume 50m</t>
     </r>
@@ -272,6 +263,15 @@
   </si>
   <si>
     <t>Tracibility Matrix Whitebox Testing</t>
+  </si>
+  <si>
+    <t>Shipment boxes must meet specific sizes {1, 0.5 , 5}</t>
+  </si>
+  <si>
+    <t>Shipment boxes should meet weight constraints {between 1-1200kg}</t>
+  </si>
+  <si>
+    <t>Shipment boxes must always have a valid destination { between {1,1} and {25, 25} }</t>
   </si>
 </sst>
 </file>
@@ -814,18 +814,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:M27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -846,7 +846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -875,7 +875,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -902,7 +902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -927,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -952,7 +952,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
@@ -977,7 +977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -1002,7 +1002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -1027,7 +1027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -1052,7 +1052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -1077,7 +1077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1102,7 +1102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -1127,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -1152,7 +1152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1231,7 +1231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -1258,7 +1258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>32</v>
@@ -1285,7 +1285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>54</v>
@@ -1310,7 +1310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>55</v>
@@ -1335,7 +1335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>56</v>
@@ -1358,7 +1358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>57</v>
@@ -1381,7 +1381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>58</v>
@@ -1404,7 +1404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>59</v>
@@ -1427,7 +1427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>60</v>
@@ -1450,7 +1450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>61</v>
@@ -1473,9 +1473,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1490,7 +1490,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>33</v>
@@ -1513,7 +1513,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>34</v>
@@ -1536,7 +1536,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>35</v>
@@ -1559,7 +1559,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>36</v>
@@ -1582,7 +1582,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>37</v>
@@ -1607,7 +1607,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>38</v>
@@ -1632,7 +1632,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>39</v>
@@ -1657,7 +1657,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>40</v>
@@ -1682,10 +1682,10 @@
       <c r="L35" s="5"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1705,10 +1705,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1728,10 +1728,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1751,10 +1751,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1774,7 +1774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
         <v>42</v>
@@ -1801,7 +1801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
         <v>43</v>
@@ -1828,7 +1828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
         <v>44</v>
@@ -1855,7 +1855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
         <v>45</v>
@@ -1882,7 +1882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>46</v>
@@ -1906,7 +1906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>47</v>
@@ -1931,7 +1931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>48</v>
@@ -1954,7 +1954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>49</v>
@@ -1977,7 +1977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>50</v>
@@ -1998,7 +1998,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>51</v>
@@ -2019,7 +2019,7 @@
       <c r="L49" s="5"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
         <v>52</v>
@@ -2040,7 +2040,7 @@
       <c r="L50" s="5"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="s">
         <v>53</v>
@@ -2076,16 +2076,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C308CA-224D-4D67-9097-4EC291C2EA45}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2093,39 +2093,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2155,9 +2155,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2332,19 +2335,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2369,9 +2368,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestDocuments/traceability-matrix.xlsx
+++ b/Documents/Testing/TestDocuments/traceability-matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc659db7a6935bda/Desktop/github/winter24-sft221-zaa-2/Documents/Testing/TestDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FB66B37B-17F7-490A-AA8F-9A57D23DB175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF457E2-775F-4648-8B8C-FCBBCA50FE19}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FB66B37B-17F7-490A-AA8F-9A57D23DB175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612157DD-7A1C-4EDC-A562-402CE5D5B302}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3000" yWindow="768" windowWidth="10116" windowHeight="10524" activeTab="1" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracibility Matrix" sheetId="1" r:id="rId1"/>
@@ -117,15 +117,6 @@
     <t>Requirement Details</t>
   </si>
   <si>
-    <t>package should be pickup by the truck of a route that is closer to the destination</t>
-  </si>
-  <si>
-    <t>package should be pickup by the truck of a route that has better capacity if the distance is same from two trucks</t>
-  </si>
-  <si>
-    <t>package should be deliver on next day if no truck has capacity anymore</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -225,31 +216,6 @@
     <t>T024</t>
   </si>
   <si>
-    <r>
-      <t>package should be pickup by the truck that has enough space to place the shipment (max volume 50m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>TW009</t>
   </si>
   <si>
@@ -268,17 +234,29 @@
     <t>Shipment boxes must meet specific sizes {1, 0.5 , 5}</t>
   </si>
   <si>
-    <t>Shipment boxes should meet weight constraints {between 1-1200kg}</t>
-  </si>
-  <si>
-    <t>Shipment boxes must always have a valid destination { between {1,1} and {25, 25} }</t>
+    <t>Shipment boxes should be deliver on next day if no truck has capacity anymore</t>
+  </si>
+  <si>
+    <t>Shipment boxes should be pickup by the truck of route that is closer to the destination</t>
+  </si>
+  <si>
+    <t>The truck assigned for pickup should have adequate space to accommodate the shipment boxes, ensuring they do not exceed a maximum volume of 50 cubic meters.</t>
+  </si>
+  <si>
+    <t>If the distance from two trucks to the shipment boxes is equal, the boxes should be picked up by the truck on the route with better capacity.</t>
+  </si>
+  <si>
+    <t>Shipment packages must adhere to weight limits ranging from 1 to 1200 kilograms.</t>
+  </si>
+  <si>
+    <t>Shipment boxes are required to possess a legitimate destination within the range of coordinates from {1,1} to {25,25}.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,13 +281,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,6 +484,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,7 +818,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="14"/>
       <c r="M1" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -883,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -899,7 +874,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -908,13 +883,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -924,7 +899,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -933,13 +908,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -949,7 +924,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -958,13 +933,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -974,7 +949,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -984,13 +959,13 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -999,7 +974,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1009,13 +984,13 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1024,7 +999,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1034,13 +1009,13 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1049,7 +1024,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1059,13 +1034,13 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1074,7 +1049,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1083,13 +1058,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1099,7 +1074,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1108,13 +1083,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1124,7 +1099,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1133,13 +1108,13 @@
         <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1149,7 +1124,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1158,13 +1133,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1174,7 +1149,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1186,22 +1161,22 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1213,132 +1188,132 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1346,22 +1321,22 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1369,22 +1344,22 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1392,22 +1367,22 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1415,22 +1390,22 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1438,22 +1413,22 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1461,21 +1436,21 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1493,16 +1468,16 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -1516,16 +1491,16 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1539,16 +1514,16 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -1562,16 +1537,16 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1585,19 +1560,19 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1610,19 +1585,19 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1635,19 +1610,19 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1660,19 +1635,19 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1685,256 +1660,256 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1942,22 +1917,22 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1965,22 +1940,22 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1988,10 +1963,10 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -2001,7 +1976,7 @@
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2009,10 +1984,10 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -2022,7 +1997,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2030,10 +2005,10 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -2043,7 +2018,7 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2051,10 +2026,10 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -2077,7 +2052,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2122,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2130,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2138,7 +2113,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2146,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2155,12 +2130,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,15 +2307,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2368,10 +2344,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestDocuments/traceability-matrix.xlsx
+++ b/Documents/Testing/TestDocuments/traceability-matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc659db7a6935bda/Desktop/github/winter24-sft221-zaa-2/Documents/Testing/TestDocuments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FB66B37B-17F7-490A-AA8F-9A57D23DB175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612157DD-7A1C-4EDC-A562-402CE5D5B302}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1C7E5D-D6A0-4004-A466-8BF55F5E6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracibility Matrix" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -469,6 +469,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +485,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,18 +786,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -821,7 +818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -850,26 +847,24 @@
       <c r="L2" s="2"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -877,24 +872,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -902,24 +895,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -927,24 +918,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -952,24 +941,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -977,24 +968,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1002,24 +995,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1027,24 +1022,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1052,21 +1049,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1077,21 +1074,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1102,21 +1099,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1127,21 +1124,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1152,13 +1149,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
         <v>26</v>
@@ -1179,13 +1178,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
         <v>26</v>
@@ -1206,13 +1207,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
         <v>26</v>
@@ -1233,13 +1236,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
         <v>26</v>
@@ -1260,24 +1265,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1285,24 +1290,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1310,22 +1315,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1333,22 +1340,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1356,22 +1365,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1379,22 +1388,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1402,22 +1411,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1425,22 +1434,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1448,7 +1457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>63</v>
       </c>
@@ -1465,7 +1474,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>30</v>
@@ -1486,9 +1495,11 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>31</v>
@@ -1509,9 +1520,11 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>32</v>
@@ -1532,9 +1545,11 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>33</v>
@@ -1555,9 +1570,11 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>34</v>
@@ -1582,7 +1599,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>35</v>
@@ -1607,7 +1624,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
@@ -1632,7 +1649,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>37</v>
@@ -1657,7 +1674,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
         <v>59</v>
@@ -1676,11 +1693,9 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
         <v>60</v>
@@ -1699,11 +1714,9 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
         <v>61</v>
@@ -1722,18 +1735,15 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
         <v>26</v>
@@ -1745,119 +1755,109 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>43</v>
@@ -1871,17 +1871,13 @@
       <c r="H44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>44</v>
@@ -1896,17 +1892,13 @@
       <c r="H45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>45</v>
@@ -1915,21 +1907,19 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>46</v>
@@ -1938,21 +1928,19 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>47</v>
@@ -1965,15 +1953,13 @@
       <c r="H48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>48</v>
@@ -1986,15 +1972,13 @@
       <c r="H49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
         <v>49</v>
@@ -2007,15 +1991,13 @@
       <c r="H50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
@@ -2028,9 +2010,7 @@
       <c r="H51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2051,16 +2031,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C308CA-224D-4D67-9097-4EC291C2EA45}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2076,7 +2056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2084,7 +2064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2072,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2116,7 +2096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2130,9 +2110,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2307,19 +2290,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2344,9 +2323,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestDocuments/traceability-matrix.xlsx
+++ b/Documents/Testing/TestDocuments/traceability-matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansha\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1C7E5D-D6A0-4004-A466-8BF55F5E6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCCAC1A-C4C3-4F2D-9984-3174D7BBDCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BF2C2EA-6658-4885-BCA1-B03AABC6ADA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracibility Matrix" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
   <si>
     <t>Requirements Traceability Matrix</t>
   </si>
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -445,6 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,7 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,41 +785,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4E6E5-98C4-49DD-9D54-D4CB0290F4DE}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="10" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -845,9 +846,9 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -856,15 +857,15 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -872,22 +873,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -895,22 +896,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -918,22 +919,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -941,24 +942,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="5"/>
@@ -968,24 +969,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="5"/>
@@ -995,24 +996,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="5"/>
@@ -1022,24 +1023,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="5"/>
@@ -1049,19 +1050,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="5"/>
@@ -1074,19 +1075,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="5"/>
@@ -1099,19 +1100,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="5"/>
@@ -1124,19 +1125,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="5"/>
@@ -1149,26 +1150,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="F15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="5"/>
@@ -1178,26 +1179,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="F16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J16" s="5"/>
@@ -1207,26 +1208,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="F17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J17" s="5"/>
@@ -1236,26 +1237,26 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="5"/>
@@ -1265,24 +1266,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1290,24 +1291,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1315,24 +1316,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1340,24 +1341,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1365,22 +1366,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1388,22 +1389,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1411,22 +1412,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1434,22 +1435,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1457,41 +1458,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1499,24 +1498,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1524,24 +1521,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="G30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -1549,24 +1544,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="G31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1574,447 +1567,524 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M32" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M33" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M34" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M35" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M36" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M37" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M38" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M39" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5" t="s">
+      <c r="D40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M40" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5" t="s">
+      <c r="D41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M41" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5" t="s">
+      <c r="D42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M42" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M43" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="5"/>
+      <c r="C44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M44" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="5"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M45" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="C46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="5"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M46" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="5"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M47" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="5"/>
+      <c r="G48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="10"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M48" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="5"/>
+      <c r="G49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M49" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="5"/>
+      <c r="G50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="10"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M50" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="5"/>
+      <c r="G51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="10"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="9"/>
+      <c r="M51" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E64" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2031,16 +2101,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C308CA-224D-4D67-9097-4EC291C2EA45}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="124" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="106.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2048,7 +2118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2056,7 +2126,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2064,7 +2134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2080,7 +2150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2110,12 +2180,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2290,15 +2357,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2323,10 +2394,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104E0D6D-0D9D-4F7E-9510-46B0B263C0EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC785A51-3CF5-4147-A745-6EF88C2EF8ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>